--- a/NEW HR/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
+++ b/NEW HR/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -340,6 +340,15 @@
   </si>
   <si>
     <t>5/15-17/2023</t>
+  </si>
+  <si>
+    <t>06/29/2023 ANNIV. L.</t>
+  </si>
+  <si>
+    <t>6/7,8,9/2023</t>
+  </si>
+  <si>
+    <t>6/22,23,28/2023</t>
   </si>
 </sst>
 </file>
@@ -3507,9 +3516,9 @@
   <dimension ref="A2:K70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3668,7 +3677,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>125.875</v>
+        <v>117.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3678,7 +3687,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>67.974999999999994</v>
+        <v>66.974999999999994</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4832,7 +4841,9 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="41">
+        <v>45017</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="40"/>
@@ -4848,8 +4859,12 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="41">
+        <v>45047</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="40"/>
       <c r="E62" s="9"/>
@@ -4861,13 +4876,19 @@
       <c r="H62" s="40"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="40"/>
+      <c r="D63" s="40">
+        <v>3</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13" t="str">
@@ -4877,13 +4898,19 @@
       <c r="H63" s="40"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C64" s="13"/>
-      <c r="D64" s="40"/>
+      <c r="D64" s="40">
+        <v>5</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13" t="str">
@@ -4893,11 +4920,17 @@
       <c r="H64" s="40"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="41">
+        <v>45078</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C65" s="13"/>
       <c r="D65" s="40"/>
       <c r="E65" s="9"/>
@@ -4906,10 +4939,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H65" s="40"/>
+      <c r="H65" s="40">
+        <v>1</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="48">
+        <v>45074</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>

--- a/NEW HR/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
+++ b/NEW HR/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CC5D42-0106-4F3E-9CC4-43EBB5A6358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -354,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -732,14 +733,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -749,9 +753,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1263,7 +1264,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1280,25 +1281,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A8:K91" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table134" displayName="Table134" ref="A8:K91" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table134[EARNED])-SUM(Table134[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table134[[EARNED ]])-SUM(Table134[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1310,25 +1311,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1635,34 +1636,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1674,16 +1675,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1692,16 +1693,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1712,18 +1713,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1731,7 +1732,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1744,24 +1745,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1805,7 +1806,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table134[EARNED])-SUM(Table134[Absence Undertime W/ Pay])</f>
-        <v>47</v>
+        <v>51.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1815,12 +1816,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table134[[EARNED ]])-SUM(Table134[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1842,7 +1843,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1862,7 +1863,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1882,7 +1883,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1902,7 +1903,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1922,7 +1923,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1942,7 +1943,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -1962,7 +1963,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1982,7 +1983,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -2028,7 +2029,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -2048,7 +2049,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -2068,7 +2069,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2088,7 +2089,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>55</v>
       </c>
@@ -2106,7 +2107,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2126,7 +2127,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2146,7 +2147,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2166,7 +2167,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2186,7 +2187,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2232,7 +2233,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="48"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2252,7 +2253,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2272,7 +2273,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2292,7 +2293,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2312,7 +2313,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2332,7 +2333,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>65</v>
       </c>
@@ -2376,7 +2377,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2396,7 +2397,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2416,7 +2417,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2462,7 +2463,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2482,7 +2483,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2502,7 +2503,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="48"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2522,7 +2523,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2542,7 +2543,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2562,7 +2563,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2582,7 +2583,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2602,7 +2603,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -2622,7 +2623,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>82</v>
       </c>
@@ -2640,7 +2641,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2660,7 +2661,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2680,7 +2681,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2700,7 +2701,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2720,7 +2721,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2740,7 +2741,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2760,7 +2761,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2780,7 +2781,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2800,7 +2801,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2820,7 +2821,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -2840,7 +2841,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2890,7 +2891,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>86</v>
       </c>
@@ -2908,7 +2909,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2928,7 +2929,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2948,7 +2949,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -2994,7 +2995,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -3014,7 +3015,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -3034,7 +3035,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -3054,7 +3055,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -3074,7 +3075,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -3094,7 +3095,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3114,7 +3115,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3134,7 +3135,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -3158,7 +3159,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>94</v>
       </c>
@@ -3176,7 +3177,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="20" t="s">
         <v>63</v>
@@ -3224,7 +3225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>44958</v>
       </c>
@@ -3244,7 +3245,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>44986</v>
       </c>
@@ -3264,19 +3265,15 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>45017</v>
       </c>
-      <c r="B80" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="B80" s="20"/>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
-      <c r="D80" s="40">
-        <v>3</v>
-      </c>
+      <c r="D80" s="40"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
@@ -3286,29 +3283,29 @@
       <c r="H80" s="40"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="20"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>45047</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3324,7 +3321,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3340,7 +3337,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3356,7 +3353,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3372,7 +3369,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3388,7 +3385,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3404,7 +3401,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3420,7 +3417,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3436,7 +3433,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3452,7 +3449,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="42"/>
       <c r="B91" s="15"/>
       <c r="C91" s="43"/>
@@ -3470,23 +3467,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3509,34 +3506,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K70"/>
+  <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A52" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3548,16 +3545,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3566,16 +3563,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3586,16 +3583,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3603,7 +3600,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3616,24 +3613,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3668,7 +3665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3677,7 +3674,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>117.875</v>
+        <v>114.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3687,12 +3684,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>66.974999999999994</v>
+        <v>65.974999999999994</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -3714,7 +3711,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43221</v>
       </c>
@@ -3738,7 +3735,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="42">
         <v>43252</v>
       </c>
@@ -3760,7 +3757,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43313</v>
       </c>
@@ -3784,7 +3781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>46</v>
@@ -3806,7 +3803,7 @@
         <v>43324</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43344</v>
       </c>
@@ -3830,7 +3827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -3852,7 +3849,7 @@
         <v>43356</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43374</v>
       </c>
@@ -3876,7 +3873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>55</v>
       </c>
@@ -3894,7 +3891,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43466</v>
       </c>
@@ -3918,7 +3915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43497</v>
       </c>
@@ -3942,7 +3939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43556</v>
       </c>
@@ -3966,7 +3963,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43586</v>
       </c>
@@ -3990,7 +3987,7 @@
         <v>43603</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>43617</v>
       </c>
@@ -4014,7 +4011,7 @@
         <v>43626</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -4034,7 +4031,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>50</v>
@@ -4056,7 +4053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43647</v>
       </c>
@@ -4080,7 +4077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43678</v>
       </c>
@@ -4104,7 +4101,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43739</v>
       </c>
@@ -4128,7 +4125,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41"/>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -4150,7 +4147,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>65</v>
       </c>
@@ -4168,7 +4165,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43831</v>
       </c>
@@ -4190,7 +4187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41"/>
       <c r="B32" s="20" t="s">
         <v>68</v>
@@ -4210,7 +4207,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41"/>
       <c r="B33" s="20" t="s">
         <v>46</v>
@@ -4232,7 +4229,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -4254,7 +4251,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43862</v>
       </c>
@@ -4278,7 +4275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>43983</v>
       </c>
@@ -4302,7 +4299,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>44075</v>
       </c>
@@ -4326,7 +4323,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41"/>
       <c r="B38" s="20" t="s">
         <v>76</v>
@@ -4348,7 +4345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>44105</v>
       </c>
@@ -4372,7 +4369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>50</v>
@@ -4394,7 +4391,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>44166</v>
       </c>
@@ -4418,7 +4415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>82</v>
       </c>
@@ -4436,7 +4433,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44197</v>
       </c>
@@ -4460,7 +4457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>44287</v>
       </c>
@@ -4482,7 +4479,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44348</v>
       </c>
@@ -4504,7 +4501,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44378</v>
       </c>
@@ -4528,7 +4525,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>86</v>
       </c>
@@ -4546,7 +4543,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44621</v>
       </c>
@@ -4568,7 +4565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>44713</v>
       </c>
@@ -4592,7 +4589,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44743</v>
       </c>
@@ -4616,7 +4613,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>44805</v>
       </c>
@@ -4640,7 +4637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41"/>
       <c r="B52" s="20" t="s">
         <v>46</v>
@@ -4662,7 +4659,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44835</v>
       </c>
@@ -4686,7 +4683,7 @@
         <v>44829</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41"/>
       <c r="B54" s="20" t="s">
         <v>50</v>
@@ -4708,7 +4705,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44896</v>
       </c>
@@ -4732,7 +4729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>94</v>
       </c>
@@ -4750,7 +4747,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44927</v>
       </c>
@@ -4774,7 +4771,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44986</v>
       </c>
@@ -4798,7 +4795,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="20" t="s">
         <v>47</v>
@@ -4818,7 +4815,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41"/>
       <c r="B60" s="20" t="s">
         <v>46</v>
@@ -4840,7 +4837,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>45017</v>
       </c>
@@ -4858,7 +4855,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41">
         <v>45047</v>
       </c>
@@ -4880,10 +4877,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
       <c r="B63" s="20" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="40">
@@ -4899,17 +4896,17 @@
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="20" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
@@ -4921,36 +4918,38 @@
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="41">
-        <v>45078</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="41"/>
       <c r="B65" s="20" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C65" s="13"/>
-      <c r="D65" s="40"/>
+      <c r="D65" s="40">
+        <v>5</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H65" s="40">
-        <v>1</v>
-      </c>
+      <c r="H65" s="40"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="48">
-        <v>45074</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="20"/>
+      <c r="K65" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="41">
+        <v>45078</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C66" s="13"/>
       <c r="D66" s="40"/>
       <c r="E66" s="9"/>
@@ -4959,14 +4958,22 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H66" s="40"/>
+      <c r="H66" s="40">
+        <v>1</v>
+      </c>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="20"/>
+      <c r="K66" s="48">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="41">
+        <v>45094</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C67" s="13"/>
       <c r="D67" s="40"/>
       <c r="E67" s="9"/>
@@ -4975,12 +4982,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H67" s="40"/>
+      <c r="H67" s="40">
+        <v>1</v>
+      </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="48">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4996,7 +5007,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5012,41 +5023,57 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="44"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="41"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="43" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H70" s="44"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="40"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="15"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="20"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="42"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="43" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="44"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5069,28 +5096,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5103,7 +5130,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5132,7 +5159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>126.875</v>
       </c>
@@ -5156,7 +5183,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5171,10 +5198,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5194,7 +5221,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5220,7 +5247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5246,7 +5273,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5272,7 +5299,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5298,7 +5325,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5324,7 +5351,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5350,7 +5377,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5376,7 +5403,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5402,7 +5429,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5422,7 +5449,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5442,7 +5469,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5462,7 +5489,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5483,7 +5510,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5504,7 +5531,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5525,7 +5552,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5546,7 +5573,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5567,7 +5594,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5588,7 +5615,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5609,7 +5636,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5630,7 +5657,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5651,7 +5678,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5672,7 +5699,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5693,7 +5720,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5714,7 +5741,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5735,7 +5762,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5756,7 +5783,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5777,7 +5804,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5798,7 +5825,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5819,7 +5846,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -5840,7 +5867,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -5861,7 +5888,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -5882,7 +5909,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -5891,7 +5918,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -5900,7 +5927,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -5909,7 +5936,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -5918,7 +5945,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -5927,7 +5954,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -5936,7 +5963,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -5945,7 +5972,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -5954,7 +5981,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -5963,7 +5990,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -5972,7 +5999,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -5981,7 +6008,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -5990,7 +6017,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -5999,7 +6026,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6008,7 +6035,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6017,7 +6044,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6026,7 +6053,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6035,7 +6062,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6044,7 +6071,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6053,7 +6080,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6062,7 +6089,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6071,7 +6098,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6080,7 +6107,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6089,7 +6116,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6098,7 +6125,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6107,7 +6134,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6116,7 +6143,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6125,7 +6152,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6134,7 +6161,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6143,7 +6170,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
+++ b/NEW HR/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CC5D42-0106-4F3E-9CC4-43EBB5A6358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862EB597-F609-421A-9C61-4E62F5F6FB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>6/22,23,28/2023</t>
+  </si>
+  <si>
+    <t>7/12,13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1643,9 +1646,9 @@
   <dimension ref="A2:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1806,7 +1809,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table134[EARNED])-SUM(Table134[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>52.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1816,7 +1819,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table134[[EARNED ]])-SUM(Table134[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3179,7 +3182,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>45</v>
@@ -3227,7 +3230,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -3247,7 +3250,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -3267,7 +3270,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -3287,7 +3290,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -3306,15 +3309,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="41"/>
+      <c r="A82" s="41">
+        <v>45107</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="9"/>
@@ -3322,7 +3329,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="41"/>
+      <c r="A83" s="41">
+        <v>45138</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="40"/>
@@ -3338,7 +3347,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="41"/>
+      <c r="A84" s="41">
+        <v>45169</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="40"/>
@@ -3354,7 +3365,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="41"/>
+      <c r="A85" s="41">
+        <v>45199</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="40"/>
@@ -3370,7 +3383,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="41"/>
+      <c r="A86" s="41">
+        <v>45230</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="40"/>
@@ -3386,7 +3401,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="41"/>
+      <c r="A87" s="41">
+        <v>45260</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="40"/>
@@ -3513,9 +3530,9 @@
   <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3674,7 +3691,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>114.875</v>
+        <v>111.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4992,10 +5009,16 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="41">
+        <v>45108</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="40"/>
+      <c r="D68" s="40">
+        <v>3</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13" t="str">
@@ -5005,7 +5028,9 @@
       <c r="H68" s="40"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>

--- a/NEW HR/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
+++ b/NEW HR/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862EB597-F609-421A-9C61-4E62F5F6FB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
   <si>
     <t>PERIOD</t>
   </si>
@@ -353,12 +352,15 @@
   </si>
   <si>
     <t>7/12,13,14/2023</t>
+  </si>
+  <si>
+    <t>7/24,25,31/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1267,7 +1269,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1284,25 +1286,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table134" displayName="Table134" ref="A8:K91" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A8:K91" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table134[EARNED])-SUM(Table134[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table134[[EARNED ]])-SUM(Table134[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1314,25 +1316,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1639,34 +1641,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A74" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
+      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +1689,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1707,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1727,7 +1729,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1735,7 +1737,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1748,7 +1750,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -1765,7 +1767,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1824,7 +1826,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1846,7 +1848,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1866,7 +1868,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1886,7 +1888,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1906,7 +1908,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1926,7 +1928,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1946,7 +1948,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -1966,7 +1968,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1986,7 +1988,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -2032,7 +2034,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -2052,7 +2054,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -2072,7 +2074,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2092,7 +2094,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>55</v>
       </c>
@@ -2110,7 +2112,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2130,7 +2132,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2150,7 +2152,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2170,7 +2172,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2190,7 +2192,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2236,7 +2238,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="48"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2256,7 +2258,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2276,7 +2278,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2296,7 +2298,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2316,7 +2318,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2336,7 +2338,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2362,7 +2364,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>65</v>
       </c>
@@ -2380,7 +2382,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2400,7 +2402,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2420,7 +2422,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2466,7 +2468,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2486,7 +2488,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2506,7 +2508,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="48"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2526,7 +2528,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2546,7 +2548,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2566,7 +2568,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2586,7 +2588,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2606,7 +2608,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -2626,7 +2628,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>82</v>
       </c>
@@ -2644,7 +2646,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2664,7 +2666,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2684,7 +2686,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2704,7 +2706,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2724,7 +2726,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2744,7 +2746,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2764,7 +2766,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2784,7 +2786,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2804,7 +2806,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2824,7 +2826,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -2844,7 +2846,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2870,7 +2872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2894,7 +2896,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>86</v>
       </c>
@@ -2912,7 +2914,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2932,7 +2934,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2952,7 +2954,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -2998,7 +3000,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -3018,7 +3020,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -3038,7 +3040,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -3058,7 +3060,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -3078,7 +3080,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -3098,7 +3100,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3118,7 +3120,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3138,7 +3140,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -3162,7 +3164,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>94</v>
       </c>
@@ -3180,7 +3182,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>44957</v>
       </c>
@@ -3206,7 +3208,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="20" t="s">
         <v>63</v>
@@ -3228,7 +3230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>44985</v>
       </c>
@@ -3248,7 +3250,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>45016</v>
       </c>
@@ -3268,7 +3270,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>45046</v>
       </c>
@@ -3288,7 +3290,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>45077</v>
       </c>
@@ -3308,7 +3310,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>45107</v>
       </c>
@@ -3328,7 +3330,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>45138</v>
       </c>
@@ -3346,7 +3348,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>45169</v>
       </c>
@@ -3364,7 +3366,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>45199</v>
       </c>
@@ -3382,7 +3384,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>45230</v>
       </c>
@@ -3400,7 +3402,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>45260</v>
       </c>
@@ -3418,7 +3420,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3434,7 +3436,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3450,7 +3452,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3466,7 +3468,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="15"/>
       <c r="C91" s="43"/>
@@ -3497,10 +3499,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3523,34 +3525,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A61" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3571,7 +3573,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3589,7 +3591,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3609,7 +3611,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3617,7 +3619,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3630,7 +3632,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3647,7 +3649,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3682,7 +3684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3691,7 +3693,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>111.875</v>
+        <v>108.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3701,12 +3703,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>65.974999999999994</v>
+        <v>64.974999999999994</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -3728,7 +3730,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43221</v>
       </c>
@@ -3752,7 +3754,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>43252</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43313</v>
       </c>
@@ -3798,7 +3800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>46</v>
@@ -3820,7 +3822,7 @@
         <v>43324</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43344</v>
       </c>
@@ -3844,7 +3846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -3866,7 +3868,7 @@
         <v>43356</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43374</v>
       </c>
@@ -3890,7 +3892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>55</v>
       </c>
@@ -3908,7 +3910,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43466</v>
       </c>
@@ -3932,7 +3934,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43497</v>
       </c>
@@ -3956,7 +3958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43556</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43586</v>
       </c>
@@ -4004,7 +4006,7 @@
         <v>43603</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>43617</v>
       </c>
@@ -4028,7 +4030,7 @@
         <v>43626</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -4048,7 +4050,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>50</v>
@@ -4070,7 +4072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43647</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43678</v>
       </c>
@@ -4118,7 +4120,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43739</v>
       </c>
@@ -4142,7 +4144,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -4164,7 +4166,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>65</v>
       </c>
@@ -4182,7 +4184,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43831</v>
       </c>
@@ -4204,7 +4206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="20" t="s">
         <v>68</v>
@@ -4224,7 +4226,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="20" t="s">
         <v>46</v>
@@ -4246,7 +4248,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -4268,7 +4270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43862</v>
       </c>
@@ -4292,7 +4294,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>43983</v>
       </c>
@@ -4316,7 +4318,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>44075</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="20" t="s">
         <v>76</v>
@@ -4362,7 +4364,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>44105</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>50</v>
@@ -4408,7 +4410,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>44166</v>
       </c>
@@ -4432,7 +4434,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>82</v>
       </c>
@@ -4450,7 +4452,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44197</v>
       </c>
@@ -4474,7 +4476,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>44287</v>
       </c>
@@ -4496,7 +4498,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44348</v>
       </c>
@@ -4518,7 +4520,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44378</v>
       </c>
@@ -4542,7 +4544,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>86</v>
       </c>
@@ -4560,7 +4562,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44621</v>
       </c>
@@ -4582,7 +4584,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>44713</v>
       </c>
@@ -4606,7 +4608,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44743</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44805</v>
       </c>
@@ -4654,7 +4656,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="20" t="s">
         <v>46</v>
@@ -4676,7 +4678,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44835</v>
       </c>
@@ -4700,7 +4702,7 @@
         <v>44829</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="20" t="s">
         <v>50</v>
@@ -4722,7 +4724,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44896</v>
       </c>
@@ -4746,7 +4748,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>94</v>
       </c>
@@ -4764,7 +4766,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44927</v>
       </c>
@@ -4788,7 +4790,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44986</v>
       </c>
@@ -4812,7 +4814,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="20" t="s">
         <v>47</v>
@@ -4832,7 +4834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="20" t="s">
         <v>46</v>
@@ -4854,7 +4856,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>45017</v>
       </c>
@@ -4872,7 +4874,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>45047</v>
       </c>
@@ -4894,7 +4896,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="20" t="s">
         <v>45</v>
@@ -4916,7 +4918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="20" t="s">
         <v>87</v>
@@ -4938,7 +4940,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="20" t="s">
         <v>72</v>
@@ -4960,7 +4962,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>45078</v>
       </c>
@@ -4984,7 +4986,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>45094</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>45108</v>
       </c>
@@ -5032,11 +5034,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C69" s="13"/>
-      <c r="D69" s="40"/>
+      <c r="D69" s="40">
+        <v>3</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13" t="str">
@@ -5046,11 +5052,15 @@
       <c r="H69" s="40"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C70" s="13"/>
       <c r="D70" s="40"/>
       <c r="E70" s="9"/>
@@ -5059,12 +5069,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="40"/>
+      <c r="H70" s="40">
+        <v>1</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="48">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
       <c r="B71" s="15"/>
       <c r="C71" s="43"/>
@@ -5095,10 +5109,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5121,28 +5135,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5155,7 +5169,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5184,7 +5198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>126.875</v>
       </c>
@@ -5208,7 +5222,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5223,10 +5237,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5246,7 +5260,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5272,7 +5286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5298,7 +5312,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5324,7 +5338,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5350,7 +5364,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5376,7 +5390,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5402,7 +5416,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5428,7 +5442,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5454,7 +5468,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5474,7 +5488,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5494,7 +5508,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5514,7 +5528,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5535,7 +5549,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5556,7 +5570,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5577,7 +5591,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5598,7 +5612,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5619,7 +5633,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5640,7 +5654,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5661,7 +5675,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5682,7 +5696,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5703,7 +5717,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5724,7 +5738,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5745,7 +5759,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5766,7 +5780,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5787,7 +5801,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5808,7 +5822,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5829,7 +5843,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5850,7 +5864,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5871,7 +5885,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -5892,7 +5906,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -5913,7 +5927,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -5934,7 +5948,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -5943,7 +5957,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -5952,7 +5966,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -5961,7 +5975,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -5970,7 +5984,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -5979,7 +5993,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -5988,7 +6002,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -5997,7 +6011,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -6006,7 +6020,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -6015,7 +6029,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -6024,7 +6038,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -6033,7 +6047,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6042,7 +6056,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6051,7 +6065,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6060,7 +6074,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6069,7 +6083,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6078,7 +6092,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6087,7 +6101,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6096,7 +6110,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6105,7 +6119,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6114,7 +6128,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6123,7 +6137,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6132,7 +6146,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6141,7 +6155,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6150,7 +6164,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6159,7 +6173,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6168,7 +6182,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6177,7 +6191,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6186,7 +6200,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6195,7 +6209,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
+++ b/NEW HR/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="109">
   <si>
     <t>PERIOD</t>
   </si>
@@ -355,6 +355,15 @@
   </si>
   <si>
     <t>7/24,25,31/2023</t>
+  </si>
+  <si>
+    <t>8/24,25,29/2023</t>
+  </si>
+  <si>
+    <t>9/14,15/2023</t>
+  </si>
+  <si>
+    <t>89/27,31/2023</t>
   </si>
 </sst>
 </file>
@@ -590,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,20 +744,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -758,6 +767,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,7 +1328,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1650,7 +1662,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,34 +1684,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -1711,23 +1723,23 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1753,18 +1765,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1811,7 +1823,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table134[EARNED])-SUM(Table134[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1821,7 +1833,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table134[[EARNED ]])-SUM(Table134[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3335,13 +3347,15 @@
         <v>45138</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="40"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="9"/>
@@ -3353,13 +3367,15 @@
         <v>45169</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="9"/>
@@ -3486,17 +3502,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
@@ -3529,12 +3545,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K71"/>
+  <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,34 +3572,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -3595,21 +3611,21 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3635,18 +3651,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3693,7 +3709,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>108.875</v>
+        <v>103.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3703,7 +3719,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.974999999999994</v>
+        <v>62.974999999999994</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5079,10 +5095,16 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="15"/>
+      <c r="A71" s="42">
+        <v>45139</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="C71" s="43"/>
-      <c r="D71" s="44"/>
+      <c r="D71" s="44">
+        <v>3</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="15"/>
       <c r="G71" s="43" t="str">
@@ -5092,21 +5114,117 @@
       <c r="H71" s="44"/>
       <c r="I71" s="9"/>
       <c r="J71" s="12"/>
-      <c r="K71" s="15"/>
+      <c r="K71" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="41">
+        <v>45170</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="40">
+        <v>2</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="40"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="B73" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="40">
+        <v>2</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="40"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="20"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="40"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="20"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="43" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="44"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5157,17 +5275,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -5253,12 +5371,12 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
